--- a/RemoteYearBot/SampleData_RealAnon2020/fromBot_FacultySchedules_1SheetEach.xlsx
+++ b/RemoteYearBot/SampleData_RealAnon2020/fromBot_FacultySchedules_1SheetEach.xlsx
@@ -8,20 +8,47 @@
   </bookViews>
   <sheets>
     <sheet name="JunAllard" sheetId="1" r:id="rId1"/>
-    <sheet name="DaeSeokEom" sheetId="2" r:id="rId2"/>
-    <sheet name="JohnLowengrub" sheetId="3" r:id="rId3"/>
-    <sheet name="AlbertSiryaporn" sheetId="4" r:id="rId4"/>
-    <sheet name="VivekSwarup" sheetId="5" r:id="rId5"/>
-    <sheet name="KevinThornton" sheetId="6" r:id="rId6"/>
-    <sheet name="DominikWodarz" sheetId="7" r:id="rId7"/>
-    <sheet name="KyokoYokomori" sheetId="8" r:id="rId8"/>
+    <sheet name="StevenAllison" sheetId="2" r:id="rId2"/>
+    <sheet name="KevinBeier" sheetId="3" r:id="rId3"/>
+    <sheet name="JamesBrody" sheetId="4" r:id="rId4"/>
+    <sheet name="TimDowning" sheetId="5" r:id="rId5"/>
+    <sheet name="DaeSeokEom" sheetId="6" r:id="rId6"/>
+    <sheet name="CeliaFaiola" sheetId="7" r:id="rId7"/>
+    <sheet name="SteveFrank" sheetId="8" r:id="rId8"/>
+    <sheet name="AnyaGrosberg" sheetId="9" r:id="rId9"/>
+    <sheet name="WayneHayes" sheetId="10" r:id="rId10"/>
+    <sheet name="ArthurLander" sheetId="11" r:id="rId11"/>
+    <sheet name="GraceYuhChwenLee" sheetId="12" r:id="rId12"/>
+    <sheet name="ChangLiu" sheetId="13" r:id="rId13"/>
+    <sheet name="JohnLowengrub" sheetId="14" r:id="rId14"/>
+    <sheet name="IlhemMessaoudi" sheetId="15" r:id="rId15"/>
+    <sheet name="MattMcHenry" sheetId="16" r:id="rId16"/>
+    <sheet name="ReginaldMcNulty" sheetId="17" r:id="rId17"/>
+    <sheet name="AliMortazavi" sheetId="18" r:id="rId18"/>
+    <sheet name="MaksimPlikus" sheetId="19" r:id="rId19"/>
+    <sheet name="EricPotma" sheetId="20" r:id="rId20"/>
+    <sheet name="JoseRanz" sheetId="21" r:id="rId21"/>
+    <sheet name="ThomasSchilling" sheetId="22" r:id="rId22"/>
+    <sheet name="MarcusSeldin" sheetId="23" r:id="rId23"/>
+    <sheet name="KnutSolna" sheetId="24" r:id="rId24"/>
+    <sheet name="VivekSwarup" sheetId="25" r:id="rId25"/>
+    <sheet name="KevinThornton" sheetId="26" r:id="rId26"/>
+    <sheet name="AlejandraVerdugo" sheetId="27" r:id="rId27"/>
+    <sheet name="ArmandoVillalta" sheetId="28" r:id="rId28"/>
+    <sheet name="KatrineWhiteson" sheetId="29" r:id="rId29"/>
+    <sheet name="DominikWodarz" sheetId="30" r:id="rId30"/>
+    <sheet name="ZebaWunderlich" sheetId="31" r:id="rId31"/>
+    <sheet name="JackXin" sheetId="32" r:id="rId32"/>
+    <sheet name="KyokoYokomori" sheetId="33" r:id="rId33"/>
+    <sheet name="ClareYu" sheetId="34" r:id="rId34"/>
+    <sheet name="JinYu" sheetId="35" r:id="rId35"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2275" uniqueCount="95">
   <si>
     <t>Jun Allard</t>
   </si>
@@ -125,58 +152,187 @@
     <t>open</t>
   </si>
   <si>
-    <t>Bashir, Julian</t>
+    <t>Janeway, Kathryn</t>
+  </si>
+  <si>
+    <t>Ogawa, Alyssa</t>
+  </si>
+  <si>
+    <t>Kirk, James T.</t>
+  </si>
+  <si>
+    <t>Troi, Lwaxana</t>
+  </si>
+  <si>
+    <t>Sisko, Benjamin</t>
+  </si>
+  <si>
+    <t>Steven Allison</t>
+  </si>
+  <si>
+    <t>Troi, Deanna</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Nechayev, Alynna</t>
+  </si>
+  <si>
+    <t>Kevin Beier</t>
+  </si>
+  <si>
+    <t>James Brody</t>
+  </si>
+  <si>
+    <t>Chekov, Pavel</t>
+  </si>
+  <si>
+    <t>La Forge, Geordi</t>
+  </si>
+  <si>
+    <t>Guinan</t>
+  </si>
+  <si>
+    <t>Rozhenko, Alexander</t>
+  </si>
+  <si>
+    <t>Tim Downing</t>
   </si>
   <si>
     <t>Dae Seok Eom</t>
   </si>
   <si>
-    <t>...</t>
+    <t>Bashir, Julian</t>
+  </si>
+  <si>
+    <t>Yar, Tasha</t>
+  </si>
+  <si>
+    <t>Laren, Ro</t>
   </si>
   <si>
     <t>McCoy, Leonard</t>
   </si>
   <si>
-    <t>Troi, Lwaxana</t>
+    <t>Celia Faiola</t>
+  </si>
+  <si>
+    <t>Steve Frank</t>
+  </si>
+  <si>
+    <t>Sulu, Hikaru</t>
+  </si>
+  <si>
+    <t>Anya Grosberg</t>
+  </si>
+  <si>
+    <t>Uhura, Nyota</t>
+  </si>
+  <si>
+    <t>Wayne Hayes</t>
+  </si>
+  <si>
+    <t>Arthur Lander</t>
+  </si>
+  <si>
+    <t>Nerys, Kira</t>
+  </si>
+  <si>
+    <t>Grace Yuh Chwen Lee</t>
+  </si>
+  <si>
+    <t>Crusher, Wesley</t>
+  </si>
+  <si>
+    <t>Chang Liu</t>
   </si>
   <si>
     <t>John Lowengrub</t>
   </si>
   <si>
-    <t>Crusher, Wesley</t>
+    <t>O'Brien, Miles</t>
   </si>
   <si>
-    <t>Albert Siryaporn</t>
+    <t>Dax, Jadzia</t>
   </si>
   <si>
-    <t>Sisko, Benjamin</t>
+    <t>Ilhem Messaoudi</t>
+  </si>
+  <si>
+    <t>Torres, B'Elanna</t>
+  </si>
+  <si>
+    <t>Matt McHenry</t>
+  </si>
+  <si>
+    <t>Worf</t>
+  </si>
+  <si>
+    <t>Reginald McNulty</t>
+  </si>
+  <si>
+    <t>Ali Mortazavi</t>
+  </si>
+  <si>
+    <t>Maksim Plikus</t>
+  </si>
+  <si>
+    <t>Picard, Jean-Luc</t>
+  </si>
+  <si>
+    <t>Borg Queen, The</t>
+  </si>
+  <si>
+    <t>Eric Potma</t>
+  </si>
+  <si>
+    <t>Crusher, Beverley</t>
+  </si>
+  <si>
+    <t>Jose Ranz</t>
+  </si>
+  <si>
+    <t>Thomas Schilling</t>
+  </si>
+  <si>
+    <t>Marcus Seldin</t>
+  </si>
+  <si>
+    <t>Knut Solna</t>
   </si>
   <si>
     <t>Vivek Swarup</t>
   </si>
   <si>
-    <t>O'Brien, Miles</t>
-  </si>
-  <si>
     <t>Kevin Thornton</t>
   </si>
   <si>
-    <t>Troi, Deanna</t>
+    <t>Alejandra Verdugo</t>
   </si>
   <si>
-    <t>Chekov, Pavel</t>
+    <t>Armando Villalta</t>
+  </si>
+  <si>
+    <t>Katrine Whiteson</t>
   </si>
   <si>
     <t>Dominik Wodarz</t>
   </si>
   <si>
-    <t>Uhura, Nyota</t>
+    <t>Zeba Wunderlich</t>
+  </si>
+  <si>
+    <t>Jack Xin</t>
   </si>
   <si>
     <t>Kyoko Yokomori</t>
   </si>
   <si>
-    <t>Nerys, Kira</t>
+    <t>Clare Yu</t>
+  </si>
+  <si>
+    <t>Jin Yu</t>
   </si>
 </sst>
 </file>
@@ -562,7 +718,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -602,7 +758,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -626,7 +782,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -690,7 +846,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -706,7 +862,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -746,7 +902,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -787,6 +943,2786 @@
       </c>
       <c r="B31" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -824,7 +3760,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -848,7 +3784,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -856,7 +3792,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -864,7 +3800,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -872,7 +3808,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -880,7 +3816,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -888,7 +3824,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -896,7 +3832,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -904,7 +3840,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -920,7 +3856,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -936,7 +3872,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -944,7 +3880,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -952,7 +3888,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -960,7 +3896,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -968,7 +3904,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -976,7 +3912,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -984,7 +3920,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -992,7 +3928,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1000,7 +3936,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1008,7 +3944,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1016,7 +3952,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1024,7 +3960,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1048,7 +3984,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1056,7 +3992,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1064,7 +4000,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1072,7 +4008,2787 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1102,7 +6818,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1134,7 +6850,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1142,7 +6858,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1150,7 +6866,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1158,7 +6874,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1166,7 +6882,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1174,7 +6890,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1182,7 +6898,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1214,7 +6930,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1222,7 +6938,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1230,7 +6946,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1238,7 +6954,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1246,7 +6962,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1254,7 +6970,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1262,7 +6978,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1270,7 +6986,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1278,7 +6994,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1286,7 +7002,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1294,7 +7010,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1302,7 +7018,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1326,7 +7042,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1334,7 +7050,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1342,7 +7058,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1350,7 +7066,1675 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1380,7 +8764,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1388,7 +8772,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1396,7 +8780,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1404,7 +8788,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1412,7 +8796,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1420,7 +8804,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1428,7 +8812,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1436,7 +8820,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1452,7 +8836,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1468,7 +8852,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1476,7 +8860,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1484,7 +8868,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1492,7 +8876,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1500,7 +8884,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1508,7 +8892,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1516,7 +8900,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1532,7 +8916,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1548,7 +8932,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1556,7 +8940,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1564,7 +8948,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1580,7 +8964,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1588,7 +8972,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1596,7 +8980,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1604,7 +8988,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1612,7 +8996,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1620,7 +9004,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1628,7 +9012,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1658,7 +9042,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1666,7 +9050,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1674,7 +9058,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1682,7 +9066,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1690,7 +9074,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1698,7 +9082,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1706,7 +9090,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1714,7 +9098,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1722,7 +9106,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1730,7 +9114,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1738,7 +9122,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1746,7 +9130,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1754,7 +9138,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1762,7 +9146,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1770,7 +9154,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1778,7 +9162,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1786,7 +9170,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1794,7 +9178,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1802,7 +9186,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1810,7 +9194,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1818,7 +9202,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1826,7 +9210,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1834,7 +9218,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1842,7 +9226,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1850,7 +9234,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1858,7 +9242,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1866,7 +9250,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1874,7 +9258,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1882,7 +9266,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1890,7 +9274,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1898,7 +9282,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1906,7 +9290,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1914,7 +9298,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1936,7 +9320,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1960,7 +9344,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1968,7 +9352,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1976,7 +9360,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1984,7 +9368,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2032,7 +9416,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2040,7 +9424,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2048,7 +9432,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2056,7 +9440,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2064,7 +9448,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2080,7 +9464,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2088,7 +9472,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2096,7 +9480,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2112,7 +9496,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2144,7 +9528,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2152,7 +9536,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2160,7 +9544,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2168,7 +9552,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2176,7 +9560,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2192,7 +9576,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2214,7 +9598,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2222,7 +9606,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2230,7 +9614,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2238,7 +9622,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2246,7 +9630,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2254,7 +9638,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2262,7 +9646,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2278,7 +9662,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2294,7 +9678,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2302,7 +9686,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2310,7 +9694,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2318,7 +9702,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2326,7 +9710,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2334,7 +9718,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2342,7 +9726,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2358,7 +9742,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2374,7 +9758,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2390,7 +9774,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2406,7 +9790,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2414,7 +9798,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2422,7 +9806,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2430,7 +9814,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2438,7 +9822,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2446,7 +9830,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2454,7 +9838,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2462,7 +9846,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2470,7 +9854,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2492,7 +9876,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2500,7 +9884,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2508,7 +9892,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2516,7 +9900,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2524,7 +9908,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2532,7 +9916,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2540,7 +9924,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2564,7 +9948,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2580,7 +9964,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2588,7 +9972,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2596,7 +9980,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2604,7 +9988,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2612,7 +9996,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2620,7 +10004,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2676,7 +10060,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2692,7 +10076,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2700,7 +10084,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2708,7 +10092,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2716,7 +10100,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2724,7 +10108,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2732,7 +10116,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2749,6 +10133,284 @@
       </c>
       <c r="B33" t="s">
         <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
